--- a/atomica/library/hypertension_dyn_progbook.xlsx
+++ b/atomica/library/hypertension_dyn_progbook.xlsx
@@ -3666,126 +3666,66 @@
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="40">
+  <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
       <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
-      <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
